--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Nodes_test(Finished)/Compare_Figure.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Nodes_test(Finished)/Compare_Figure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Nodes_test(SWIB)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Nodes_test(Finished)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C6A1D4-84FD-4981-B6D8-C757C219DC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A918705D-CFFC-40C3-AF2B-897A84CA5CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3196,22 +3196,22 @@
         <v>50</v>
       </c>
       <c r="B2" s="1">
-        <v>0.11190999999999998</v>
+        <v>0.22381999999999996</v>
       </c>
       <c r="C2" s="1">
-        <v>0.21576000000000001</v>
+        <v>0.43152000000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>0.41985499999999998</v>
+        <v>0.83970999999999996</v>
       </c>
       <c r="E2" s="1">
-        <v>9141</v>
+        <v>4570</v>
       </c>
       <c r="F2" s="1">
-        <v>9487</v>
+        <v>4743</v>
       </c>
       <c r="G2" s="1">
-        <v>9753</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3219,22 +3219,22 @@
         <v>100</v>
       </c>
       <c r="B3" s="1">
-        <v>0.117395</v>
+        <v>0.23479</v>
       </c>
       <c r="C3" s="1">
-        <v>0.21790999999999999</v>
+        <v>0.43581999999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>0.42738500000000007</v>
+        <v>0.85477000000000014</v>
       </c>
       <c r="E3" s="1">
-        <v>8714</v>
+        <v>4357</v>
       </c>
       <c r="F3" s="1">
-        <v>9393</v>
+        <v>4696</v>
       </c>
       <c r="G3" s="1">
-        <v>9581</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3242,22 +3242,22 @@
         <v>150</v>
       </c>
       <c r="B4" s="1">
-        <v>0.12083000000000001</v>
+        <v>0.24166000000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>0.22696999999999998</v>
+        <v>0.45393999999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>0.43314999999999998</v>
+        <v>0.86629999999999996</v>
       </c>
       <c r="E4" s="1">
-        <v>8466</v>
+        <v>4233</v>
       </c>
       <c r="F4" s="1">
-        <v>9018</v>
+        <v>4509</v>
       </c>
       <c r="G4" s="1">
-        <v>9453</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3265,22 +3265,22 @@
         <v>200</v>
       </c>
       <c r="B5" s="1">
-        <v>0.12958</v>
+        <v>0.25916</v>
       </c>
       <c r="C5" s="1">
-        <v>0.23363500000000001</v>
+        <v>0.46727000000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>0.43819999999999998</v>
+        <v>0.87639999999999996</v>
       </c>
       <c r="E5" s="1">
-        <v>7894</v>
+        <v>3947</v>
       </c>
       <c r="F5" s="1">
-        <v>8761</v>
+        <v>4380</v>
       </c>
       <c r="G5" s="1">
-        <v>9345</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3288,22 +3288,22 @@
         <v>250</v>
       </c>
       <c r="B6" s="1">
-        <v>0.14210999999999999</v>
+        <v>0.28421999999999997</v>
       </c>
       <c r="C6" s="1">
-        <v>0.24779000000000001</v>
+        <v>0.49558000000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>0.45083999999999996</v>
+        <v>0.90167999999999993</v>
       </c>
       <c r="E6" s="1">
-        <v>7198</v>
+        <v>3599</v>
       </c>
       <c r="F6" s="1">
-        <v>8261</v>
+        <v>4130</v>
       </c>
       <c r="G6" s="1">
-        <v>9083</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3311,22 +3311,22 @@
         <v>300</v>
       </c>
       <c r="B7" s="1">
-        <v>0.16849</v>
+        <v>0.33698</v>
       </c>
       <c r="C7" s="1">
-        <v>0.27316000000000001</v>
+        <v>0.54632000000000003</v>
       </c>
       <c r="D7" s="1">
-        <v>0.46993999999999997</v>
+        <v>0.93987999999999994</v>
       </c>
       <c r="E7" s="1">
-        <v>6071</v>
+        <v>3035</v>
       </c>
       <c r="F7" s="1">
-        <v>7493</v>
+        <v>3746</v>
       </c>
       <c r="G7" s="1">
-        <v>8713</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3334,22 +3334,22 @@
         <v>350</v>
       </c>
       <c r="B8" s="1">
-        <v>0.20054</v>
+        <v>0.40107999999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>0.29745500000000002</v>
+        <v>0.59491000000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>0.51271499999999992</v>
+        <v>1.0254299999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>5101</v>
+        <v>2550</v>
       </c>
       <c r="F8" s="1">
-        <v>6881</v>
+        <v>3440</v>
       </c>
       <c r="G8" s="1">
-        <v>7986</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3357,22 +3357,22 @@
         <v>400</v>
       </c>
       <c r="B9" s="1">
-        <v>0.27228000000000002</v>
+        <v>0.54456000000000004</v>
       </c>
       <c r="C9" s="1">
-        <v>0.35206999999999999</v>
+        <v>0.70413999999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>0.57672000000000001</v>
+        <v>1.15344</v>
       </c>
       <c r="E9" s="1">
-        <v>3757</v>
+        <v>1878</v>
       </c>
       <c r="F9" s="1">
-        <v>5814</v>
+        <v>2907</v>
       </c>
       <c r="G9" s="1">
-        <v>7100</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3380,22 +3380,22 @@
         <v>450</v>
       </c>
       <c r="B10" s="1">
-        <v>0.33994999999999997</v>
+        <v>0.67989999999999995</v>
       </c>
       <c r="C10" s="1">
-        <v>0.45021499999999992</v>
+        <v>0.90042999999999984</v>
       </c>
       <c r="D10" s="1">
-        <v>0.67430500000000004</v>
+        <v>1.3486100000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>3009</v>
+        <v>1504</v>
       </c>
       <c r="F10" s="1">
-        <v>4546</v>
+        <v>2273</v>
       </c>
       <c r="G10" s="1">
-        <v>6072</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3403,22 +3403,22 @@
         <v>500</v>
       </c>
       <c r="B11" s="1">
-        <v>0.44485000000000002</v>
+        <v>0.88970000000000005</v>
       </c>
       <c r="C11" s="1">
-        <v>0.56476000000000004</v>
+        <v>1.1295200000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>0.83677500000000005</v>
+        <v>1.6735500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>2299</v>
+        <v>1149</v>
       </c>
       <c r="F11" s="1">
-        <v>3624</v>
+        <v>1812</v>
       </c>
       <c r="G11" s="1">
-        <v>4893</v>
+        <v>2446</v>
       </c>
     </row>
   </sheetData>
